--- a/model_exports/labels/2.0_False_False_1_3.xlsx
+++ b/model_exports/labels/2.0_False_False_1_3.xlsx
@@ -453,33 +453,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-498854240069373953</t>
+          <t>t-494301276121731072</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-498919835905327104</t>
+          <t>t-793443964900737024</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-577847446270832640</t>
+          <t>t-1033470726521544704</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-624374054338867201</t>
+          <t>t-494463913853874176</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-629748063494537216</t>
+          <t>t-494829977268146176</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,11 +518,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-629757802915848193</t>
+          <t>t-495010606047821824</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-690710236638777344</t>
+          <t>t-495017350790668289</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-690724653006921728</t>
+          <t>t-495805012929708033</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-763135506188206084</t>
+          <t>t-706805466739949568</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,59 +570,59 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-763744681616257025</t>
+          <t>t-763135506188206084</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-764320260182806528</t>
+          <t>t-763744681616257025</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-887418286014570496</t>
+          <t>t-764320260182806528</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-900499401638129664</t>
+          <t>t-977115036585021440</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-900502092674215936</t>
+          <t>t-521738184288251906</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-1016827484665499650</t>
+          <t>t-521768704259162112</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-1016832637904695296</t>
+          <t>t-588022316359151617</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,33 +661,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-501433457286053889</t>
+          <t>t-588515231380348928</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-501490224640573440</t>
+          <t>t-588525414441553920</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-601392774370340865</t>
+          <t>t-588659923807907840</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-608798073561612289</t>
+          <t>t-601392774370340865</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,20 +713,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-622509518346268672</t>
+          <t>t-638852256234913792</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-641712529677398016</t>
+          <t>t-686267623462408192</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,20 +739,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-686267623462408192</t>
+          <t>t-738281921046675456</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-854007994534813696</t>
+          <t>t-738404067647455232</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-871116400701706241</t>
+          <t>t-738429326224302080</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,59 +778,59 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-871834189787791364</t>
+          <t>t-738429350467543044</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-872075702203559936</t>
+          <t>t-848784048755531776</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-872158265681096708</t>
+          <t>t-848852185962037248</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-876890893143298050</t>
+          <t>t-848864915762929664</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-876899745704415232</t>
+          <t>t-848891572318072832</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,33 +843,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-876909191105048577</t>
+          <t>t-849117747430797312</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-876910840670302209</t>
+          <t>t-849222321772658688</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-876983597760172032</t>
+          <t>t-849255695249625088</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,20 +882,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-877064271393370112</t>
+          <t>t-849369868306665472</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-877647799629733893</t>
+          <t>t-849634891255951364</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-877649383340298240</t>
+          <t>t-849637507117568000</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-878107705168334848</t>
+          <t>t-849667565186146304</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,20 +934,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-878263651773407233</t>
+          <t>t-849686849312501763</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-878265674975461376</t>
+          <t>t-849743357312024576</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,24 +960,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-878542338414362624</t>
+          <t>t-850026468906340353</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-880275227367821312</t>
+          <t>t-850319148420694016</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,46 +986,46 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-900539002423562240</t>
+          <t>t-850426637086842884</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-900561270843334662</t>
+          <t>t-850856929295552513</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-900690069668933632</t>
+          <t>t-876890893143298050</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-960921688975331329</t>
+          <t>t-876899745704415232</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,59 +1038,59 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-961028171192852485</t>
+          <t>t-876909191105048577</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-961254369663602688</t>
+          <t>t-876910840670302209</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-985145363618246656</t>
+          <t>t-876983597760172032</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-985306564868354049</t>
+          <t>t-877064271393370112</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1006110887999045632</t>
+          <t>t-877647799629733893</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1006321460951027717</t>
+          <t>t-877649383340298240</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1054831014869123073</t>
+          <t>t-878107705168334848</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,59 +1129,59 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1054887299698380800</t>
+          <t>t-878263651773407233</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1055927061867585536</t>
+          <t>t-878265674975461376</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-499691919128018944</t>
+          <t>t-878542338414362624</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-975411428663345152</t>
+          <t>t-880275227367821312</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-778024515909537792</t>
+          <t>t-950310866641149952</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-517568253363634176</t>
+          <t>t-1028763648074940416</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,11 +1207,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-518546395729379328</t>
+          <t>t-1028815266174517249</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-519264703466315776</t>
+          <t>t-1028873828355780608</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1233,20 +1233,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-538622557084082176</t>
+          <t>t-1029034881769197569</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-582884078073987072</t>
+          <t>t-1029100538422587393</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,24 +1259,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-582893069168611328</t>
+          <t>t-1054831014869123073</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-615459121891012608</t>
+          <t>t-1054887299698380800</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-619895281761423360</t>
+          <t>t-1055927061867585536</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-770981711182237696</t>
+          <t>t-499691919128018944</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,20 +1311,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-798458981752573952</t>
+          <t>t-832760057259384834</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-798478057195507713</t>
+          <t>t-832777578633064449</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,33 +1337,33 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-798508699044220928</t>
+          <t>t-762401879758372864</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-798530247192965122</t>
+          <t>t-762402279601344512</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-799607144802750464</t>
+          <t>t-762404827229892608</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-816207402437636096</t>
+          <t>t-1026541253037453312</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,11 +1389,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-893144326049419264</t>
+          <t>t-1026546271392165888</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1402,33 +1402,33 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-928952366598037506</t>
+          <t>t-1026556162186117121</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1017282491193782272</t>
+          <t>t-1026678249978585088</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1061557072670670850</t>
+          <t>t-1026720073308925953</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1061559942140780544</t>
+          <t>t-517568253363634176</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,20 +1454,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-610241505777856512</t>
+          <t>t-518546395729379328</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-610629417715412992</t>
+          <t>t-519264703466315776</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,20 +1480,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-753345702428827652</t>
+          <t>t-538622557084082176</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-753345808620105728</t>
+          <t>t-637507255093624832</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-753350269518409728</t>
+          <t>t-637635998185320448</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,20 +1519,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-788842589554343938</t>
+          <t>t-638007752250396672</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-903265153931608064</t>
+          <t>t-685243474623336449</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-621832039763849218</t>
+          <t>t-730338940872445952</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,20 +1558,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-621845142903754752</t>
+          <t>t-731342823132274688</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-717023541078728704</t>
+          <t>t-753035409660186624</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,11 +1584,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-917079758076370946</t>
+          <t>t-754462771173924865</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -1597,20 +1597,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-984799310717030402</t>
+          <t>t-801687875939078144</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-985113601743704064</t>
+          <t>t-835997827369156608</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-985197038014001152</t>
+          <t>t-958555465675362304</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-999634090503569409</t>
+          <t>t-1017282491193782272</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,20 +1649,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-764358428777078784</t>
+          <t>t-610241505777856512</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-519554920140124160</t>
+          <t>t-610629417715412992</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-585851418843615232</t>
+          <t>t-979396065278427139</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,20 +1688,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-670312803173986304</t>
+          <t>t-507504670592356352</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-840253641885913088</t>
+          <t>t-507919904779948032</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,50 +1714,50 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1005217349610426371</t>
+          <t>t-593974566453555201</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-676490487717625856</t>
+          <t>t-621832039763849218</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-676517665188507650</t>
+          <t>t-621845142903754752</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-681802042885697536</t>
+          <t>t-876870634885844994</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1766,46 +1766,46 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-682128192019234816</t>
+          <t>t-876897987485630464</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-682147581405859841</t>
+          <t>t-876995236253376512</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-682223092198936576</t>
+          <t>t-917079758076370946</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-682287065824931840</t>
+          <t>t-984799310717030402</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,24 +1818,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-682459381347254272</t>
+          <t>t-985113601743704064</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-682632199527641089</t>
+          <t>t-985197038014001152</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-682755737790099456</t>
+          <t>t-511616761545121792</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-682908634020470785</t>
+          <t>t-548325093256884224</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-682915879026339840</t>
+          <t>t-611854657594486784</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,20 +1883,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-683017640638582784</t>
+          <t>t-751267650043387906</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-683036658942513152</t>
+          <t>t-567811309744705538</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-683077568287866880</t>
+          <t>t-580481361141743616</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,20 +1922,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-683235960692314112</t>
+          <t>t-585851418843615232</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-683258563628777472</t>
+          <t>t-670312803173986304</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-683386799184543745</t>
+          <t>t-770209564532674560</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-683399457254326272</t>
+          <t>t-774727266823581696</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,46 +1974,46 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-683602691965206528</t>
+          <t>t-781902339066191873</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-683628764622905344</t>
+          <t>t-1005217349610426371</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-683644184683753472</t>
+          <t>t-524878421172953088</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-683649428587155456</t>
+          <t>t-897129980584439812</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-683773064040050688</t>
+          <t>t-638954151821594624</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,33 +2039,33 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-683968472968228864</t>
+          <t>t-639060084857929728</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-683979793273065473</t>
+          <t>t-675047436134543360</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-684007082555748352</t>
+          <t>t-743488475874353153</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,24 +2078,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-684323489562558465</t>
+          <t>t-743501818358042625</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-685408547975331840</t>
+          <t>t-783792055160082432</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -2104,20 +2104,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-950852460532428800</t>
+          <t>t-818386811332558848</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-536361968840769536</t>
+          <t>t-818898970961473536</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-540815358715002880</t>
+          <t>t-919827029243187200</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,37 +2143,37 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-575924078906904576</t>
+          <t>t-919919408797151233</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-638954151821594624</t>
+          <t>t-919933275422027776</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-639060084857929728</t>
+          <t>t-919961378433224704</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,20 +2182,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-871833381906067459</t>
+          <t>t-920296060211400704</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-919827029243187200</t>
+          <t>t-986841970411823104</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-919919408797151233</t>
+          <t>t-1031843897373278208</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-919933275422027776</t>
+          <t>t-540871484869472256</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-919961378433224704</t>
+          <t>t-543357722591514624</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,7 +2247,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-920296060211400704</t>
+          <t>t-552038248218767360</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,20 +2260,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-948484381987037185</t>
+          <t>t-552266751304798209</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-948486603227451392</t>
+          <t>t-841795901764993024</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-948505461745168384</t>
+          <t>t-841877177624850434</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,11 +2299,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-948538940134477824</t>
+          <t>t-1044757925414273025</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2312,20 +2312,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-948573984802689025</t>
+          <t>t-1044770473932816384</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-1042485319055155201</t>
+          <t>t-560903834407817217</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-682141165802631168</t>
+          <t>t-611996097129619456</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-671527403521462276</t>
+          <t>t-657221044642684928</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2364,20 +2364,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-546995440701296643</t>
+          <t>t-902218968345272321</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-560163999057448960</t>
+          <t>t-1014543719205400576</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,11 +2390,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-952138958368051200</t>
+          <t>t-1014578901966876672</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,24 +2403,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-952754172880863232</t>
+          <t>t-894558986925744129</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-1044757925414273025</t>
+          <t>t-901151504714870784</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-1044770473932816384</t>
+          <t>t-759898000407662594</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-625832003070509056</t>
+          <t>t-791266893470568448</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,11 +2455,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-626848405877301248</t>
+          <t>t-791268686447378433</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-752638920505131008</t>
+          <t>t-849724022598139904</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,33 +2481,33 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-879367414802153472</t>
+          <t>t-891497407179104257</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-912821640328773633</t>
+          <t>t-973190028435353600</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-985892254756884480</t>
+          <t>t-806138760937271296</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-1035595539918848000</t>
+          <t>t-860938986382135296</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,7 +2533,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-1062308914354642944</t>
+          <t>t-861076485599354880</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-604735735154012160</t>
+          <t>t-994221853211267073</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,11 +2559,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-707957967094685696</t>
+          <t>t-1043269235474984960</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-736136204106616832</t>
+          <t>t-671936284651196416</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,11 +2585,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-821731492581744642</t>
+          <t>t-883080365442838528</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2598,33 +2598,33 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-821745652803764226</t>
+          <t>t-883215183442739200</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-894558986925744129</t>
+          <t>t-875514382276538369</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-907490044335636480</t>
+          <t>t-899745107900940288</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-1031211148908081152</t>
+          <t>t-899747204986019844</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,11 +2650,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-607855197835149312</t>
+          <t>t-876214781744750592</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-782264769742934016</t>
+          <t>t-946987966475448325</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-791266893470568448</t>
+          <t>t-992428512744222721</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,33 +2689,33 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-791268686447378433</t>
+          <t>t-1042035586717110280</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-906974272832376832</t>
+          <t>t-910451192064614401</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-961914631135617025</t>
+          <t>t-1050667252591120384</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-972059634101047296</t>
+          <t>t-599936713796886528</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-979726568175165440</t>
+          <t>t-660036667412082688</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,37 +2754,37 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-756982430985166848</t>
+          <t>t-660641499701489665</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-756983738035077120</t>
+          <t>t-662196453281038336</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-757172169029804034</t>
+          <t>t-682987194840150016</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2793,24 +2793,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-700818903744778240</t>
+          <t>t-708426270242164736</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-859838431719030785</t>
+          <t>t-726041703153545216</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2819,24 +2819,24 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-903173716451909632</t>
+          <t>t-726754497737826305</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-681167053609283584</t>
+          <t>t-745382805253677057</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-694715871097278464</t>
+          <t>t-851625591652720640</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,24 +2858,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-695269003892228096</t>
+          <t>t-852529810760908801</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-730685047137800192</t>
+          <t>t-852624282018615296</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-730687533638619136</t>
+          <t>t-894616667350872064</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,46 +2897,46 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-734825704412446721</t>
+          <t>t-895668017060651009</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-734826990281187328</t>
+          <t>t-900495545885757441</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1005457960703754240</t>
+          <t>t-900708018983227393</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-889517070559334400</t>
+          <t>t-907946100618907648</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,20 +2949,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-657266493659435008</t>
+          <t>t-1014570924681687042</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-863311681820258304</t>
+          <t>t-1026272267364253698</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,11 +2975,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-640924573647503360</t>
+          <t>t-1052665207342944261</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2988,24 +2988,24 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-641489320088436736</t>
+          <t>t-1053196089317306368</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-682987194840150016</t>
+          <t>t-1053286918086103042</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-708426270242164736</t>
+          <t>t-1054369632671404032</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-715206020902084609</t>
+          <t>t-626642400555892737</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-715208550243557376</t>
+          <t>t-626741309693394948</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,7 +3053,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-715210823002562560</t>
+          <t>t-626870204199534598</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-715215011178803200</t>
+          <t>t-636611275666128896</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,46 +3079,46 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-721832870604640260</t>
+          <t>t-748353178270199808</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-721856912548044800</t>
+          <t>t-756927547049320448</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-722873292755828736</t>
+          <t>t-763041051426775040</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-821459572263100416</t>
+          <t>t-763066608868794368</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,20 +3131,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-851625591652720640</t>
+          <t>t-763135787424636928</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-852529810760908801</t>
+          <t>t-1032014514642870273</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,11 +3157,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-852624282018615296</t>
+          <t>t-1032716444352565254</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-911712205657317376</t>
+          <t>t-1032730617966985222</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,37 +3183,37 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-965598107676430336</t>
+          <t>t-1032743287877251074</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-578194227852505088</t>
+          <t>t-1032755601561059328</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-748353178270199808</t>
+          <t>t-1032777059473358848</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3222,11 +3222,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-763041051426775040</t>
+          <t>t-1032803632398229504</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -3235,46 +3235,46 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-763066608868794368</t>
+          <t>t-1032806227296890880</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-763135787424636928</t>
+          <t>t-1032811146875727872</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1006674770983817217</t>
+          <t>t-1032864439245000704</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1029525697382047746</t>
+          <t>t-1032982302542966789</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,33 +3287,33 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1029541696839798791</t>
+          <t>t-1033200303871545344</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1029769212384948225</t>
+          <t>t-1033518891744411648</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1032014514642870273</t>
+          <t>t-533830044200599552</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-1032716444352565254</t>
+          <t>t-534294668842766337</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,46 +3339,46 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1032730617966985222</t>
+          <t>t-577773253898477568</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1032743287877251074</t>
+          <t>t-577808831918579712</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1032755601561059328</t>
+          <t>t-586160130313625600</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1032777059473358848</t>
+          <t>t-630004911024046080</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1032803632398229504</t>
+          <t>t-630051857654751232</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-1032806227296890880</t>
+          <t>t-630833400857919488</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-1032811146875727872</t>
+          <t>t-638674545726066688</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,20 +3430,20 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-1032864439245000704</t>
+          <t>t-638724428944150528</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-1032982302542966789</t>
+          <t>t-639699321500364800</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-1033200303871545344</t>
+          <t>t-639804238848237568</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,11 +3469,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1033518891744411648</t>
+          <t>t-660890514741399552</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-796087988140834817</t>
+          <t>t-661115206525915136</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,89 +3495,89 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-605776092780044291</t>
+          <t>t-661147212135727104</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-609714781507993601</t>
+          <t>t-661201099085377537</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-609790992309469184</t>
+          <t>t-705116084911763456</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-609807635727151104</t>
+          <t>t-767994872578056192</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-610006959677382657</t>
+          <t>t-783921439044841474</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-610466198136954881</t>
+          <t>t-784017385615265792</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-630004911024046080</t>
+          <t>t-784336997477261312</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3586,7 +3586,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-630051857654751232</t>
+          <t>t-784835805999198208</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-630833400857919488</t>
+          <t>t-849475288652238849</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-681483416165048320</t>
+          <t>t-919174352289005568</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-707575261483687937</t>
+          <t>t-919528265718665216</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,20 +3638,20 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-841637693608071170</t>
+          <t>t-957285309796044800</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-957285309796044800</t>
+          <t>t-957305309328039936</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,11 +3664,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-957305309328039936</t>
+          <t>t-957621820626276353</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,11 +3677,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-957621820626276353</t>
+          <t>t-958690487875055616</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-958690487875055616</t>
+          <t>t-972048308909826048</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,59 +3703,59 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1000764381108555776</t>
+          <t>t-984477965856772096</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1057289433236545538</t>
+          <t>t-984491425478971393</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-859608993752379392</t>
+          <t>t-984517270725644288</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-726931802141659137</t>
+          <t>t-985567499843489798</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-817123537488084993</t>
+          <t>t-1000764381108555776</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,50 +3768,50 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-561705902466957314</t>
+          <t>t-1039508390869786629</t>
         </is>
       </c>
       <c r="B257" t="n">
         <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-570559495811813376</t>
+          <t>t-1039553624345661440</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-570650767369109504</t>
+          <t>t-1039619721644191744</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-570656230466838528</t>
+          <t>t-1052331593933688832</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -3820,20 +3820,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-570659758706962432</t>
+          <t>t-1052814538419003392</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-570724512095969280</t>
+          <t>t-1052930779947393024</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,7 +3846,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-570966152807100416</t>
+          <t>t-1052972300667146241</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,33 +3859,33 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-570990183648243712</t>
+          <t>t-1053005694822207488</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-571060362520502272</t>
+          <t>t-1053014697077817346</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-571231922355097600</t>
+          <t>t-1053091674438725632</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,7 +3898,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-571320451407974400</t>
+          <t>t-1053211878921568256</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-571330597400018944</t>
+          <t>t-1053220103070932992</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-571345826099941376</t>
+          <t>t-1053451825607774209</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-571920017329156096</t>
+          <t>t-1053915265375834112</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,24 +3950,24 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-572029056453115906</t>
+          <t>t-541450804008218624</t>
         </is>
       </c>
       <c r="B271" t="n">
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-573087826360836097</t>
+          <t>t-685265326112559104</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3976,46 +3976,46 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-698062078922375169</t>
+          <t>t-646786233809539072</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-769170271928483840</t>
+          <t>t-684979291696664576</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-901071860456185856</t>
+          <t>t-772514094360305664</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-578199507671904256</t>
+          <t>t-833086724096028673</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-578943021716250624</t>
+          <t>t-836430214368481288</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,24 +4041,24 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-803598066133573632</t>
+          <t>t-893162180492787716</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-573120640175112192</t>
+          <t>t-570559495811813376</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-722677158112587776</t>
+          <t>t-570650767369109504</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,37 +4080,37 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-968874912806068224</t>
+          <t>t-570656230466838528</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-571264964683436033</t>
+          <t>t-570659758706962432</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-817491496857255936</t>
+          <t>t-570724512095969280</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-578003881596215296</t>
+          <t>t-570966152807100416</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-741029103147442176</t>
+          <t>t-570990183648243712</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,11 +4145,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-783130241195585536</t>
+          <t>t-571060362520502272</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4158,11 +4158,11 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-783135151601704960</t>
+          <t>t-571231922355097600</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -4171,11 +4171,11 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-892449776129777665</t>
+          <t>t-571320451407974400</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-892462041277091840</t>
+          <t>t-571330597400018944</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,11 +4197,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-892471980875808773</t>
+          <t>t-571345826099941376</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -4210,24 +4210,24 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-892472490483646466</t>
+          <t>t-571920017329156096</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-892606487482089472</t>
+          <t>t-572029056453115906</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -4236,11 +4236,11 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-892633367342088192</t>
+          <t>t-573087826360836097</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4249,11 +4249,11 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-892700840817045504</t>
+          <t>t-769170271928483840</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -4262,20 +4262,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-892731725897281538</t>
+          <t>t-901071860456185856</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-1012441483654332417</t>
+          <t>t-946151169231114241</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,20 +4288,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-729341140499976193</t>
+          <t>t-755764875155083264</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-729421969410564096</t>
+          <t>t-697026011876233216</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-729436964269658112</t>
+          <t>t-800018818399694848</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,11 +4327,11 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-729446762138591232</t>
+          <t>t-800716652195282946</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-729454167735959552</t>
+          <t>t-862378347007025154</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,11 +4353,11 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-729749802209054720</t>
+          <t>t-894726430050754561</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -4366,7 +4366,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-573281947792883712</t>
+          <t>t-968874912806068224</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,33 +4379,33 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-686862688752807937</t>
+          <t>t-998345989382705152</t>
         </is>
       </c>
       <c r="B304" t="n">
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-771375628176072704</t>
+          <t>t-817491496857255936</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-1027967787312939008</t>
+          <t>t-741029103147442176</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,37 +4418,37 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-822759706078969856</t>
+          <t>t-798356661148655616</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-822817083591446532</t>
+          <t>t-798650812511588352</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-1042391419745435648</t>
+          <t>t-901999787855228933</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-603639937368469504</t>
+          <t>t-902015237951549441</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,137 +4470,137 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-604106567907057664</t>
+          <t>t-995839519449640960</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-605045307844337664</t>
+          <t>t-729341140499976193</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-724222646435508224</t>
+          <t>t-729421969410564096</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-910191038052077569</t>
+          <t>t-729436964269658112</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-1047259835777990656</t>
+          <t>t-729446762138591232</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-1049670308142206978</t>
+          <t>t-729454167735959552</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-631280418583658496</t>
+          <t>t-729749802209054720</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-735633517237919744</t>
+          <t>t-831479807821103104</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-1039755728448352257</t>
+          <t>t-831825002534154241</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-1039888860501688320</t>
+          <t>t-1047526401644138497</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-719978473687633922</t>
+          <t>t-1052977443760427009</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-648598850530226176</t>
+          <t>t-1002347419114311681</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,24 +4626,24 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-651424335614353409</t>
+          <t>t-821077876112035840</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-651596952564572160</t>
+          <t>t-821090113476325376</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -4652,11 +4652,11 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-904587230177443840</t>
+          <t>t-1042391419745435648</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
@@ -4665,7 +4665,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-905072243822264320</t>
+          <t>t-766980130283610112</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,20 +4678,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-905081971667296257</t>
+          <t>t-848618580681912320</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-905280030833614849</t>
+          <t>t-848657153367953411</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,24 +4704,24 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1027575306226475008</t>
+          <t>t-848877245439594496</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1041361257410904064</t>
+          <t>t-880307230364508160</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-1041679427464298496</t>
+          <t>t-1049670308142206978</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,24 +4743,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-753352623630278664</t>
+          <t>t-1049725086469685248</t>
         </is>
       </c>
       <c r="B332" t="n">
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-679420394223345665</t>
+          <t>t-735633517237919744</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4769,85 +4769,85 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1029396532313968640</t>
+          <t>t-765678719205724160</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-1029397392343425024</t>
+          <t>t-1006709802775412736</t>
         </is>
       </c>
       <c r="B335" t="n">
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1029408763877498885</t>
+          <t>t-655890642334257152</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1029408838305361921</t>
+          <t>t-659172274482733056</t>
         </is>
       </c>
       <c r="B337" t="n">
         <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-1029566349918527488</t>
+          <t>t-659184469690175488</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-946020250805514240</t>
+          <t>t-667433104118833152</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-764984507686490112</t>
+          <t>t-904587230177443840</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,20 +4860,20 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-772460103026868224</t>
+          <t>t-905072243822264320</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-895778141523894272</t>
+          <t>t-905081971667296257</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-864828748495020032</t>
+          <t>t-905280030833614849</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-897110070059728897</t>
+          <t>t-762742863394254850</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-897827875231080448</t>
+          <t>t-922944953696899072</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,20 +4925,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-796435007673946112</t>
+          <t>t-922950403255341056</t>
         </is>
       </c>
       <c r="B346" t="n">
         <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-796529318373584896</t>
+          <t>t-922959565792083968</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,24 +4951,24 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-796701113995104256</t>
+          <t>t-1001848606427697153</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-796745584795389952</t>
+          <t>t-954775347962241025</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4977,24 +4977,24 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-812266777711431682</t>
+          <t>t-954792612103442432</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-823317212446556161</t>
+          <t>t-954866409300987904</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-863757133304795136</t>
+          <t>t-716262349536149504</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,20 +5016,20 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-880054371417018369</t>
+          <t>t-931989476401926144</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-880971995671875586</t>
+          <t>t-725450676986335232</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-912214251749744641</t>
+          <t>t-910172109506273280</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-961482044650930177</t>
+          <t>t-751197637794230272</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-999404160775872512</t>
+          <t>t-1009997647032344576</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,63 +5081,63 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-1042065710745309186</t>
+          <t>t-1011820273774006272</t>
         </is>
       </c>
       <c r="B358" t="n">
         <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1043080309376466944</t>
+          <t>t-1012308763422937089</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-1043179210905464832</t>
+          <t>t-1025467650649014283</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-588767869539733506</t>
+          <t>t-1025523844994412544</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-673357306764140544</t>
+          <t>t-1025538626191380480</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -5146,24 +5146,24 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-708340740556980225</t>
+          <t>t-1026286692037222401</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-519370037812277248</t>
+          <t>t-1026301775203037184</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -5172,46 +5172,46 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-520694218625675264</t>
+          <t>t-1026820332710252544</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1048603963069779968</t>
+          <t>t-1027725663703363584</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-517603456123944960</t>
+          <t>t-1029396532313968640</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-517609652138569728</t>
+          <t>t-1029397392343425024</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,24 +5224,24 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-518412519053221888</t>
+          <t>t-1029408763877498885</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-519245102263574528</t>
+          <t>t-1029408838305361921</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -5250,7 +5250,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-519387709392314368</t>
+          <t>t-1029566349918527488</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,7 +5263,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-519393743326441472</t>
+          <t>t-971386931857772544</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,11 +5276,11 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-519395800687083520</t>
+          <t>t-915593286122950656</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-519401695307390976</t>
+          <t>t-915603421222309888</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,50 +5302,50 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-521063203389050882</t>
+          <t>t-915603564743073792</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-521358835361927168</t>
+          <t>t-779013669589884928</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-652079150321270784</t>
+          <t>t-864828748495020032</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-652171720393101312</t>
+          <t>t-804685877838565376</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -5354,24 +5354,24 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-738823278840664064</t>
+          <t>t-797647100565716992</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-927168021512126464</t>
+          <t>t-797655572573143040</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -5380,111 +5380,111 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-591229240311439360</t>
+          <t>t-797814805772046336</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-674956056209063937</t>
+          <t>t-803919035318628352</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-801681235982557184</t>
+          <t>t-804312701002457088</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-589443945773535232</t>
+          <t>t-814665332673703936</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-722253771867181056</t>
+          <t>t-814669018061803521</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-722818069320470529</t>
+          <t>t-847243626082050048</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-722837910135832577</t>
+          <t>t-847412512383356932</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-722884869374619648</t>
+          <t>t-847416452424519680</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-723517423786299392</t>
+          <t>t-847625871712112640</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,24 +5497,24 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-615884908238651393</t>
+          <t>t-847873968065433600</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-642554131211755524</t>
+          <t>t-848285144846921728</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -5523,24 +5523,24 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-738967171397758976</t>
+          <t>t-848349687950266373</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-909677183328751616</t>
+          <t>t-848632201470259200</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -5549,33 +5549,33 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-595202959648096256</t>
+          <t>t-848638922687221760</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-627009098568073216</t>
+          <t>t-848870222769606658</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-738708820491259904</t>
+          <t>t-848971430775709697</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,37 +5588,37 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-738754856811417601</t>
+          <t>t-849083151532032000</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-738830571351224320</t>
+          <t>t-849228504088670208</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-739181708906467329</t>
+          <t>t-857651953928744960</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -5627,76 +5627,76 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-538674754086244353</t>
+          <t>t-885945201105219584</t>
         </is>
       </c>
       <c r="B400" t="n">
         <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-1051891605035241474</t>
+          <t>t-885947457330438145</t>
         </is>
       </c>
       <c r="B401" t="n">
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-591871892283334656</t>
+          <t>t-830540407763300352</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-603463396365836289</t>
+          <t>t-854163806288834560</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-634983488203177984</t>
+          <t>t-860879398387556352</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-636255173036388352</t>
+          <t>t-891439389787774978</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -5705,7 +5705,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-744549085244334080</t>
+          <t>t-891452469061996544</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,20 +5718,20 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-744630770116005888</t>
+          <t>t-901254745888878592</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-745023417267724289</t>
+          <t>t-880054371417018369</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,7 +5744,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-745961763473080321</t>
+          <t>t-880971995671875586</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,7 +5757,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-746461142604668928</t>
+          <t>t-894457279076020224</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,59 +5770,59 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-762281733672820736</t>
+          <t>t-905261367573090305</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-925333063336321024</t>
+          <t>t-913513656511614977</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-933614181286318081</t>
+          <t>t-519240969838166016</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-933625586442035205</t>
+          <t>t-621860106481762304</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-976509689000325120</t>
+          <t>t-708340740556980225</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-1024937575906271233</t>
+          <t>t-642734533335453700</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,20 +5848,20 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-557320938375905282</t>
+          <t>t-738823278840664064</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-684255556144619520</t>
+          <t>t-786070938412515329</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,24 +5874,24 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-699529516008476673</t>
+          <t>t-786266752061669376</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-712150675111727105</t>
+          <t>t-786287404416135168</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5900,11 +5900,11 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-828957006832795648</t>
+          <t>t-786588204170346496</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5913,24 +5913,24 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-831105804946247681</t>
+          <t>t-786674211528015873</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-888058781363580930</t>
+          <t>t-927168021512126464</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5939,50 +5939,50 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-958216984176427008</t>
+          <t>t-519900708980948992</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-1018785093295464448</t>
+          <t>t-737657149174730753</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-837620098416459776</t>
+          <t>t-737657922885423104</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-962370594363838464</t>
+          <t>t-738291666285694976</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -5991,37 +5991,37 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-1048216558785449986</t>
+          <t>t-520483074711486464</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-567369806647951362</t>
+          <t>t-520499948983304192</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-567639888489500672</t>
+          <t>t-520513908759859200</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -6030,7 +6030,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-697699936171909120</t>
+          <t>t-522926675542421504</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,37 +6043,37 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-697706009293410304</t>
+          <t>t-529737265317421056</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-698055021934571520</t>
+          <t>t-615884908238651393</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-698056879210102784</t>
+          <t>t-909677183328751616</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-698065167305805824</t>
+          <t>t-738708820491259904</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,11 +6095,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-698086763601006593</t>
+          <t>t-738754856811417601</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-698453860554244096</t>
+          <t>t-738830571351224320</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,7 +6121,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-731437259828924417</t>
+          <t>t-739181708906467329</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,11 +6134,11 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-888068991020929025</t>
+          <t>t-965860574339923968</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -6147,20 +6147,20 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-1006487935733174274</t>
+          <t>t-538736663154135040</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-1024201138277638144</t>
+          <t>t-677902230650003457</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,24 +6173,24 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-918068732882313216</t>
+          <t>t-694507587149111296</t>
         </is>
       </c>
       <c r="B442" t="n">
         <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-962759977394991104</t>
+          <t>t-702966418057330688</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
         <v>0</v>
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-591228165827260416</t>
+          <t>t-703646494901927936</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,7 +6212,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-612970627083968512</t>
+          <t>t-783909177920020480</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,24 +6225,24 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-690751741676142592</t>
+          <t>t-784305124269182976</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-942758921533624320</t>
+          <t>t-933614181286318081</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -6251,20 +6251,20 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-593397061376147456</t>
+          <t>t-933625586442035205</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-956419595136585729</t>
+          <t>t-974595772317659137</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,24 +6277,24 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-728815708801531904</t>
+          <t>t-1048194085624995840</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-728860742099849216</t>
+          <t>t-580823195311276032</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
         <v>0</v>
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-948800001890713600</t>
+          <t>t-649269312625209344</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,7 +6316,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-1024752032350195712</t>
+          <t>t-722777139469283328</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-601387987851677696</t>
+          <t>t-652506002957422592</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,46 +6342,46 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-601436583682703361</t>
+          <t>t-750337802257129474</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-608880570362437632</t>
+          <t>t-764828802384007168</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-609461898141147136</t>
+          <t>t-1014607937048850434</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-873880943819460609</t>
+          <t>t-1056877276875374593</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,11 +6394,11 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-874034580747104259</t>
+          <t>t-552766016325840896</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -6407,11 +6407,11 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-874852269765931008</t>
+          <t>t-669507403621277696</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-916986223478140928</t>
+          <t>t-669900887607898113</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,20 +6433,20 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-633506882188021761</t>
+          <t>t-712150675111727105</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-900842879182131201</t>
+          <t>t-917052938425716736</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,20 +6459,20 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1038016191711928321</t>
+          <t>t-917054284579078144</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-1038359113791680512</t>
+          <t>t-917061971631108097</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,33 +6485,33 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-661463139213565952</t>
+          <t>t-917080429227778048</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-801672831046221825</t>
+          <t>t-917105709682216960</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-801706221803806720</t>
+          <t>t-958216984176427008</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-925429606693457921</t>
+          <t>t-1048216558785449986</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,37 +6537,37 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-953295637679951872</t>
+          <t>t-707530442468098049</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-953311292475011072</t>
+          <t>t-707587020831518720</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-656869699980955649</t>
+          <t>t-1000392026742034432</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -6576,20 +6576,20 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-657672314465726464</t>
+          <t>t-1000411846237675521</t>
         </is>
       </c>
       <c r="B473" t="n">
         <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-669879511748579329</t>
+          <t>t-1000414273863069696</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,20 +6602,20 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-670195512713330689</t>
+          <t>t-1000416714763505664</t>
         </is>
       </c>
       <c r="B475" t="n">
         <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-692403922451992576</t>
+          <t>t-570990543225950209</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,11 +6628,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-943797632639610881</t>
+          <t>t-575707186204180480</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
         <v>0</v>
@@ -6641,46 +6641,46 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-948994988666425345</t>
+          <t>t-888068991020929025</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-949010413437497347</t>
+          <t>t-580368693688999936</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-949151246799142913</t>
+          <t>t-865160167155003392</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-715965241637470208</t>
+          <t>t-760176410539528192</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-897572628667478020</t>
+          <t>t-850396935152422913</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-730493187534413824</t>
+          <t>t-859839256700882944</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,33 +6719,33 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-730679314916757504</t>
+          <t>t-860843222091935744</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-737207145662435328</t>
+          <t>t-861496628741640192</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-737378615814393856</t>
+          <t>t-988840187785568257</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-737618316705964032</t>
+          <t>t-1027292918111825921</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,59 +6771,59 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-737643792757587968</t>
+          <t>t-586494775089442816</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-737668431374389250</t>
+          <t>t-940281474259062789</t>
         </is>
       </c>
       <c r="B489" t="n">
         <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-737882738997530625</t>
+          <t>t-957917970390450177</t>
         </is>
       </c>
       <c r="B490" t="n">
         <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-738072611704430592</t>
+          <t>t-746801790117646336</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-738383058857021440</t>
+          <t>t-746821154074206210</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,33 +6836,33 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-737563920496349185</t>
+          <t>t-717265029461049349</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-957301618868965376</t>
+          <t>t-594549643134009344</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-737703959993913344</t>
+          <t>t-720146113794183169</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,11 +6875,11 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-737753796202385408</t>
+          <t>t-1024752032350195712</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
         <v>0</v>
@@ -6888,20 +6888,20 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-737755886211477504</t>
+          <t>t-610036486059200513</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-737784335567364096</t>
+          <t>t-612221773757681664</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-737884729626791936</t>
+          <t>t-916986223478140928</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-737979350088323072</t>
+          <t>t-641169109116293120</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,20 +6940,20 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-952868151414403072</t>
+          <t>t-1035170375703961601</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-956876178509516800</t>
+          <t>t-1035201829989056512</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-957730126799802368</t>
+          <t>t-1035614467998998530</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,11 +6979,11 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-738790953792720896</t>
+          <t>t-1018847155090542593</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
         <v>1</v>
@@ -6992,20 +6992,20 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-902928093131808770</t>
+          <t>t-642781966346010625</t>
         </is>
       </c>
       <c r="B505" t="n">
         <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-740249467828482048</t>
+          <t>t-643095780228771840</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,20 +7018,20 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-860462128263811072</t>
+          <t>t-643795122480631808</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-824202245172592640</t>
+          <t>t-643112220348534784</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,11 +7044,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-753159226390962176</t>
+          <t>t-801672831046221825</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
         <v>0</v>
@@ -7057,46 +7057,46 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-760420119554076674</t>
+          <t>t-801706221803806720</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-806105457077186561</t>
+          <t>t-953295637679951872</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-806175022247280641</t>
+          <t>t-953311292475011072</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-806834354802438144</t>
+          <t>t-664402656019005440</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,11 +7109,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-960991499604328448</t>
+          <t>t-663799425475731457</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -7122,24 +7122,24 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-862319925528023040</t>
+          <t>t-674905913438769153</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-862320640791121920</t>
+          <t>t-808055620339384324</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,20 +7148,20 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-836581914320506880</t>
+          <t>t-685089211784019968</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-992831860215615489</t>
+          <t>t-687198236776464384</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,7 +7174,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-854059785049788419</t>
+          <t>t-701060752074010624</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,11 +7187,11 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-1019231079817973760</t>
+          <t>t-943797632639610881</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
         <v>0</v>
@@ -7200,20 +7200,20 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-1002130830792241153</t>
+          <t>t-835605594534981633</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-887813365304705024</t>
+          <t>t-835708598772727808</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,11 +7226,11 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-892499939137335296</t>
+          <t>t-979633616404844544</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
         <v>1</v>
@@ -7239,11 +7239,11 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-894025914476105728</t>
+          <t>t-953202460994232320</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C524" t="n">
         <v>0</v>
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-970932114597335040</t>
+          <t>t-953212881809518592</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-1003312973887270917</t>
+          <t>t-737663862317682689</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,98 +7278,98 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-1003367321245798400</t>
+          <t>t-737736248970911744</t>
         </is>
       </c>
       <c r="B527" t="n">
         <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-1003369104735113216</t>
+          <t>t-1003603539539742720</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-1003387066909167617</t>
+          <t>t-738790953792720896</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-1003393307597312000</t>
+          <t>t-740249467828482048</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-1003471542783823872</t>
+          <t>t-755694559401762816</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-1003531171559628800</t>
+          <t>t-952704809529851906</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1003538396285947905</t>
+          <t>t-760154379307458560</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1003544511115603973</t>
+          <t>t-766238666905747456</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,24 +7382,24 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1003657726029975553</t>
+          <t>t-906552804285861889</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1003966949058056192</t>
+          <t>t-834802174559412225</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,11 +7408,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-949166298210082816</t>
+          <t>t-834314501134614528</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
         <v>0</v>
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-956067919263346688</t>
+          <t>t-991723021709832193</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,11 +7434,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-956083408882536448</t>
+          <t>t-1019231079817973760</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539" t="n">
         <v>1</v>
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-1003659615115141120</t>
+          <t>t-883552231022366723</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,72 +7460,72 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-1043100641466490881</t>
+          <t>t-886643817893560320</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-1043534562775781377</t>
+          <t>t-887813365304705024</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-495525926722367488</t>
+          <t>t-904822909704822785</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-891629267066290176</t>
+          <t>t-938446444700237824</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-931841011340296192</t>
+          <t>t-1003312973887270917</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-510001639617351681</t>
+          <t>t-1003367321245798400</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-512537797442273280</t>
+          <t>t-1003369104735113216</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C547" t="n">
         <v>1</v>
@@ -7551,46 +7551,46 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-529938272265703424</t>
+          <t>t-1003387066909167617</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-629559315221737472</t>
+          <t>t-1003393307597312000</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-645961089671405568</t>
+          <t>t-1003471542783823872</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-666134929525178369</t>
+          <t>t-1003531171559628800</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,7 +7603,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-666141677652848640</t>
+          <t>t-1003538396285947905</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,20 +7616,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-666146479564681217</t>
+          <t>t-1003544511115603973</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-666155143696506880</t>
+          <t>t-1003657726029975553</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,59 +7642,59 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-666158894691954689</t>
+          <t>t-1003966949058056192</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-666536410439028736</t>
+          <t>t-949999091047477249</t>
         </is>
       </c>
       <c r="B556" t="n">
         <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-666602420022194177</t>
+          <t>t-953922137156411392</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-666664955077242881</t>
+          <t>t-977185697940623360</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>0</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-667221889505296388</t>
+          <t>t-1017566472292495360</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,20 +7707,20 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-667625624421445632</t>
+          <t>t-494327833263874048</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-667976594137350144</t>
+          <t>t-495525926722367488</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,7 +7733,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-668796235004932096</t>
+          <t>t-590545916886659072</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,20 +7746,20 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-669882207800942593</t>
+          <t>t-673149443068309504</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-711861360414433281</t>
+          <t>t-676725475671085057</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,7 +7772,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-711871478451417088</t>
+          <t>t-678069780989870080</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,50 +7785,50 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-711899328244113408</t>
+          <t>t-891629267066290176</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-712616490994892801</t>
+          <t>t-956368490293800960</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-736860584470159360</t>
+          <t>t-956387965382610945</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-788186519307563010</t>
+          <t>t-627052129107087360</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
         <v>1</v>
@@ -7837,20 +7837,20 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-790900222368976896</t>
+          <t>t-627062516095455232</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-790909371781746688</t>
+          <t>t-627070573118488576</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-791594802844434434</t>
+          <t>t-627075912631083008</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-796846317632790528</t>
+          <t>t-627076573653561344</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,7 +7889,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-814010823689408512</t>
+          <t>t-629559315221737472</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,59 +7902,59 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-875288006172831744</t>
+          <t>t-643644357350948864</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-890567544695906304</t>
+          <t>t-796846317632790528</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-918517038053814277</t>
+          <t>t-798050241861840896</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-925890248541794304</t>
+          <t>t-798099061475684352</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-940565575226372102</t>
+          <t>t-815395045314560000</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-940637216757477377</t>
+          <t>t-815855888129028096</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-947798399184785408</t>
+          <t>t-815865821570289668</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,7 +7993,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-947806740518641664</t>
+          <t>t-815882427159678976</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,72 +8006,72 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-947808691230822401</t>
+          <t>t-815960345336545280</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-947833275673747457</t>
+          <t>t-816280699388841984</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-948185680043155456</t>
+          <t>t-854250685419986949</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-948407157803728896</t>
+          <t>t-854262837673246720</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-948721205443358720</t>
+          <t>t-879622376966635521</t>
         </is>
       </c>
       <c r="B587" t="n">
         <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-948800260238815232</t>
+          <t>t-879625739317854209</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,11 +8084,11 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-948884291743870976</t>
+          <t>t-879987948296568834</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
         <v>0</v>
@@ -8097,20 +8097,20 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-509160710316650496</t>
+          <t>t-890567544695906304</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-509293535221145601</t>
+          <t>t-910155731134853120</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,20 +8123,20 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-632870673115774976</t>
+          <t>t-910165111620329472</t>
         </is>
       </c>
       <c r="B592" t="n">
         <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-718742884065759233</t>
+          <t>t-914672240901287936</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,37 +8149,37 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-777605888655761409</t>
+          <t>t-918517038053814277</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-778041943855026178</t>
+          <t>t-921445800072298496</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-778431677144018944</t>
+          <t>t-922085813818658816</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
         <v>0</v>
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-806390063244410880</t>
+          <t>t-930305225726054400</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,7 +8201,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-806499176066453505</t>
+          <t>t-947798399184785408</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-914680114595602432</t>
+          <t>t-947806740518641664</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,11 +8227,11 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-1015491573092528128</t>
+          <t>t-947808691230822401</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C600" t="n">
         <v>0</v>
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-519137345065320448</t>
+          <t>t-947833275673747457</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,11 +8253,11 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-645905787584274433</t>
+          <t>t-948185680043155456</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="n">
         <v>1</v>
@@ -8266,33 +8266,33 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-645928760433246209</t>
+          <t>t-948407157803728896</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-645952188204761088</t>
+          <t>t-948721205443358720</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-646249606892797957</t>
+          <t>t-948800260238815232</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,20 +8305,20 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-662632429539057666</t>
+          <t>t-948884291743870976</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-662681193154920448</t>
+          <t>t-1041319973430255616</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-663567974029131776</t>
+          <t>t-762938358486052865</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-674612681832140800</t>
+          <t>t-857957864354086912</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,59 +8357,59 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-683221184775733248</t>
+          <t>t-857974981891719168</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-685773216275533824</t>
+          <t>t-922122902136172545</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-736424760335179778</t>
+          <t>t-503088287381082112</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-740813200766214144</t>
+          <t>t-533912579676975104</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-749065341586726912</t>
+          <t>t-571610231173599232</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,20 +8422,20 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-792955986956824576</t>
+          <t>t-605261202822807552</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-793029205319491584</t>
+          <t>t-605672293654654976</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,20 +8448,20 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-793055195232018432</t>
+          <t>t-659219094017708032</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-799522784040849408</t>
+          <t>t-671487099355426816</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,59 +8474,59 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-828522614863785984</t>
+          <t>t-671928198360391680</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-834984646416842753</t>
+          <t>t-672328618379362304</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-834986851718946816</t>
+          <t>t-673050773710839808</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-835051963096121344</t>
+          <t>t-807384780572459008</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-842271490141634560</t>
+          <t>t-836823983353909248</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,20 +8539,20 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-842322052103122944</t>
+          <t>t-868766918035079168</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-842905808266448896</t>
+          <t>t-870517868831449088</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,11 +8565,11 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-842910185718931456</t>
+          <t>t-922601399271112704</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -8578,20 +8578,20 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-863988808966053888</t>
+          <t>t-924905228415193088</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-868766918035079168</t>
+          <t>t-931079635575586816</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-870517868831449088</t>
+          <t>t-931432910795653120</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,20 +8617,20 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-912888084739641344</t>
+          <t>t-932133115748696064</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-913276391470227456</t>
+          <t>t-932454853443334144</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-918078962173075457</t>
+          <t>t-976030387188137984</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-918257100547014658</t>
+          <t>t-976030855033319425</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,20 +8669,20 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-924905228415193088</t>
+          <t>t-976037405776990208</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-976030387188137984</t>
+          <t>t-987647411144220672</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,11 +8695,11 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-976030855033319425</t>
+          <t>t-1036192189947281408</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-976037405776990208</t>
+          <t>t-1061598368164528128</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-987647411144220672</t>
+          <t>t-1061625768696930304</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-548367743385624577</t>
+          <t>t-1061782167494320130</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-563978477183840256</t>
+          <t>t-1062219458046058496</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,33 +8760,33 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-830849870890102784</t>
+          <t>t-548367743385624577</t>
         </is>
       </c>
       <c r="B641" t="n">
         <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-830867426568867840</t>
+          <t>t-586217765666623488</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-964120690952564737</t>
+          <t>t-723687727468683264</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,11 +8799,11 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-1062500554134310912</t>
+          <t>t-723764446498152448</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C644" t="n">
         <v>1</v>
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-535750936824528896</t>
+          <t>t-831995329318772736</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-535750956848140288</t>
+          <t>t-934049646694998016</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-535751324143341568</t>
+          <t>t-961643380684959749</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,20 +8851,20 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-535754365856776193</t>
+          <t>t-550981789649735680</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-535786478451048448</t>
+          <t>t-661588229892673536</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,24 +8877,24 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-538727466139803648</t>
+          <t>t-664725934935707650</t>
         </is>
       </c>
       <c r="B650" t="n">
         <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-621352736672473089</t>
+          <t>t-802829831633108992</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C651" t="n">
         <v>1</v>
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-621526313216536576</t>
+          <t>t-989542585978052610</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,20 +8916,20 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-621967424384925696</t>
+          <t>t-523431319012139009</t>
         </is>
       </c>
       <c r="B653" t="n">
         <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-661588229892673536</t>
+          <t>t-551339874838908928</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,24 +8942,24 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-801312317355003904</t>
+          <t>t-780295387017949184</t>
         </is>
       </c>
       <c r="B655" t="n">
         <v>0</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-802829831633108992</t>
+          <t>t-825956164366172160</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
         <v>1</v>
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-757366725759242240</t>
+          <t>t-825956302023163905</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-757494302339571712</t>
+          <t>t-825967811814125568</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-757771911346749441</t>
+          <t>t-825983840988467200</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,11 +9007,11 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-757882635976790016</t>
+          <t>t-832183739346063361</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C660" t="n">
         <v>1</v>
@@ -9020,37 +9020,37 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-758521629890650113</t>
+          <t>t-545394272619331584</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-716900054133399553</t>
+          <t>t-673010347008110593</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-799444908029284352</t>
+          <t>t-674974370180239360</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -9059,33 +9059,33 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-799480577057583104</t>
+          <t>t-685036854010339328</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-832183739346063361</t>
+          <t>t-697703131493355520</t>
         </is>
       </c>
       <c r="B665" t="n">
         <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-558428892898131968</t>
+          <t>t-698358832959873025</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,20 +9098,20 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-558596887519850496</t>
+          <t>t-699788036561743872</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-547033780322455552</t>
+          <t>t-797741772730306560</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-547601049230782464</t>
+          <t>t-797789959478353920</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-548131100095442945</t>
+          <t>t-797794521597644800</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-550823263941574657</t>
+          <t>t-544711019629907968</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,11 +9163,11 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-681630649879543808</t>
+          <t>t-544769671799394304</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
         <v>1</v>
@@ -9176,11 +9176,11 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-636337860757483520</t>
+          <t>t-544813894037147648</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,11 +9189,11 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-695999176518184960</t>
+          <t>t-545169541052243968</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-737185619730780161</t>
+          <t>t-557096941750743040</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-785106169677230080</t>
+          <t>t-803451448700780544</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-785108107227561984</t>
+          <t>t-803454039333556224</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,33 +9241,33 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-785110315553787904</t>
+          <t>t-803455995494027264</t>
         </is>
       </c>
       <c r="B678" t="n">
         <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-785111654228856832</t>
+          <t>t-803466221962215424</t>
         </is>
       </c>
       <c r="B679" t="n">
         <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-785153740848308225</t>
+          <t>t-803470959600467968</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-785284230573993984</t>
+          <t>t-773077201063407617</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,20 +9293,20 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-785337680368467968</t>
+          <t>t-859771332908777474</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-785343194607202304</t>
+          <t>t-964122358905823232</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-785389967123984386</t>
+          <t>t-966989390873378816</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-786190856218746880</t>
+          <t>t-666482399069343745</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,11 +9345,11 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-786491706409492481</t>
+          <t>t-734985227739619329</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="n">
         <v>0</v>
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-820620984231174145</t>
+          <t>t-823731915236708352</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-919895715089932288</t>
+          <t>t-930542567199997958</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,20 +9384,20 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-964122358905823232</t>
+          <t>t-547937617547771905</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-966989390873378816</t>
+          <t>t-796490215078711296</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,20 +9410,20 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-734985227739619329</t>
+          <t>t-993018034288705536</t>
         </is>
       </c>
       <c r="B691" t="n">
         <v>0</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-823731915236708352</t>
+          <t>t-599804476774436864</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,11 +9436,11 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-547937617547771905</t>
+          <t>t-908138128514437120</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,20 +9449,20 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-812248571802025984</t>
+          <t>t-941530453147836416</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-857803058968838144</t>
+          <t>t-1027038929319411712</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-857867986841079808</t>
+          <t>t-1027057881365901312</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,24 +9488,24 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-993018034288705536</t>
+          <t>t-1027179632922046467</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-801684041787273216</t>
+          <t>t-594000547591553024</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C698" t="n">
         <v>1</v>
@@ -9514,46 +9514,46 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-594000547591553024</t>
+          <t>t-594263552824741888</t>
         </is>
       </c>
       <c r="B699" t="n">
         <v>1</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-594263552824741888</t>
+          <t>t-594718318050684929</t>
         </is>
       </c>
       <c r="B700" t="n">
         <v>1</v>
       </c>
       <c r="C700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-594718318050684929</t>
+          <t>t-595757559006507011</t>
         </is>
       </c>
       <c r="B701" t="n">
         <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-595757559006507011</t>
+          <t>t-808956641743732736</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-780018288940158976</t>
+          <t>t-809733108471889920</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-781093621592383488</t>
+          <t>t-832028212376985600</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,37 +9592,37 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-940363500475465728</t>
+          <t>t-832064333504933888</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-895185499131961344</t>
+          <t>t-940363500475465728</t>
         </is>
       </c>
       <c r="B706" t="n">
         <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-936534965277294597</t>
+          <t>t-962542177514500096</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
         <v>0</v>
@@ -9631,11 +9631,11 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-936606274795462656</t>
+          <t>t-561946682707812352</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,7 +9644,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-950566545595551745</t>
+          <t>t-620194547256029184</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-698712295900229633</t>
+          <t>t-638407777333850112</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,37 +9670,37 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-754793839844397056</t>
+          <t>t-932461262268661760</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-757432883531304960</t>
+          <t>t-932590015711993858</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-775600763481436160</t>
+          <t>t-932596112241786880</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-932461262268661760</t>
+          <t>t-932690981908074496</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-932590015711993858</t>
+          <t>t-932881287005835264</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-932596112241786880</t>
+          <t>t-950713527123066881</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-932690981908074496</t>
+          <t>t-566151747232489472</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,11 +9761,11 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-932881287005835264</t>
+          <t>t-605944627380817920</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-720546793344270336</t>
+          <t>t-677428252881784832</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-729241413867556864</t>
+          <t>t-819830340390830081</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,11 +9800,11 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-819830340390830081</t>
+          <t>t-997052112126136320</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C721" t="n">
         <v>1</v>
@@ -9813,46 +9813,46 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-883957999576002561</t>
+          <t>t-863292024522395649</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-590978217546092544</t>
+          <t>t-639809419102937088</t>
         </is>
       </c>
       <c r="B723" t="n">
         <v>1</v>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-837085298324619265</t>
+          <t>t-877794875583934464</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-1062157078439968770</t>
+          <t>t-820218394255339521</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-820218394255339521</t>
+          <t>t-702431733740920832</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-737450472194211841</t>
+          <t>t-702439207684464640</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-737498199435317252</t>
+          <t>t-786434119072821249</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,11 +9904,11 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-733197295139741697</t>
+          <t>t-732116489394851840</t>
         </is>
       </c>
       <c r="B729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C729" t="n">
         <v>1</v>
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-760724447745699841</t>
+          <t>t-732306842290946048</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-964014223184375808</t>
+          <t>t-760724447745699841</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-935334721793306624</t>
+          <t>t-833891988315336704</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,7 +9956,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-935382314166693889</t>
+          <t>t-833912149630078976</t>
         </is>
       </c>
       <c r="B733" t="n">
